--- a/biology/Botanique/Alamo_Square/Alamo_Square.xlsx
+++ b/biology/Botanique/Alamo_Square/Alamo_Square.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alamo Square est un quartier résidentiel de San Francisco, en Californie. Il est nommé d'après le jardin public qui constitue son cœur. Il est enclavé dans le quartier de Western Addition, compris dans le cinquième district de la ville. Il est desservi par les bus Muni, notamment les lignes 5, 21, 22 et 24.
